--- a/YLSYDer_programlari/MV_Listesi.xlsx
+++ b/YLSYDer_programlari/MV_Listesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak10268\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak10268\Documents\GitHub\YLSYder\YLSYDer_programlari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35505779-28C8-4DD1-BB6E-DC5E8B17B08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5DD499-5A05-4B06-B2F5-EE653F2D3388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="1012">
   <si>
     <t>Isim</t>
   </si>
@@ -3061,16 +3061,13 @@
   </si>
   <si>
     <t>Yavuzyılmaz</t>
-  </si>
-  <si>
-    <t>Twitter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3105,27 +3102,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3141,14 +3124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3368,11 +3349,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H601"/>
+  <dimension ref="A1:G601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3384,10 +3365,9 @@
     <col min="5" max="5" width="13.796875" customWidth="1"/>
     <col min="6" max="6" width="30.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.296875" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3409,11 +3389,8 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3432,7 +3409,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3450,7 +3427,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3468,7 +3445,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3485,7 +3462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3502,7 +3479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3519,7 +3496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3536,7 +3513,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3553,7 +3530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3570,7 +3547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3587,7 +3564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3604,7 +3581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3621,7 +3598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3638,7 +3615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3655,7 +3632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
